--- a/new_graph_build/DL04_QA_ner.xlsx
+++ b/new_graph_build/DL04_QA_ner.xlsx
@@ -536,7 +536,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>胸腔积液,心包积液,腹水</t>
+          <t>腹水,胸腔积液,心包积液</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -589,7 +589,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>中枢神经系统转移,病灶,局部治疗</t>
+          <t>局部治疗,中枢神经系统转移,病灶</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -641,7 +641,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>切片,活检</t>
+          <t>活检,切片</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -748,7 +748,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>前三个月,腹水,洗脱期,胸腔积液,心包积液</t>
+          <t>腹水,洗脱期,前三个月,心包积液,胸腔积液</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -852,7 +852,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>突变,KRAS,一线治疗</t>
+          <t>KRAS,突变,一线治疗</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -907,7 +907,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>辅助治疗,洗脱期,6个月</t>
+          <t>6个月,洗脱期,辅助治疗</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -981,7 +981,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>ILD,炎症,类固醇,感染</t>
+          <t>炎症,感染,ILD,类固醇</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>中枢神经系统转移,脑转移,方案,第4,T-DXd,局部治疗</t>
+          <t>中枢神经系统转移,方案,T-DXd,局部治疗,第4,脑转移</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>铂,免疫,帕博利珠,自身免疫,毒性,医学禁忌,MP相关,禁忌症</t>
+          <t>免疫,毒性,铂,MP相关,自身免疫,禁忌症,医学禁忌,帕博利珠</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>突变,HER2突变,人群,一线治疗</t>
+          <t>HER2突变,一线治疗,突变,人群</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>突变,肿瘤样本,样本,方案</t>
+          <t>肿瘤样本,突变,样本,方案</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>数据且,突变,ALK,ROS1、PDL1,EGFR,方案,ctDNA</t>
+          <t>ROS1、PDL1,方案,数据且,ALK,ctDNA,EGFR,突变</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>中枢神经系统转移,病灶,靶病灶,RECIST,局部治疗</t>
+          <t>中枢神经系统转移,局部治疗,靶病灶,RECIST,病灶</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>腹水,肺癌,洗脱期,肺炎,T-DXd,胸腔积液,心包积液</t>
+          <t>腹水,洗脱期,T-DXd,肺炎,心包积液,肺癌,胸腔积液</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>基因,突变,HER2,HER2突变,基因突变,基因组,方案,ctDNA</t>
+          <t>HER2,基因突变,方案,基因组,基因,HER2突变,ctDNA,突变</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>洗脱期,治疗洗脱期,方案</t>
+          <t>治疗洗脱期,洗脱期,方案</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>洗脱期,治疗洗脱期,方案</t>
+          <t>治疗洗脱期,洗脱期,方案</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2周,洗脱期</t>
+          <t>洗脱期,2周</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>胸腔积液,洗脱期,穿刺</t>
+          <t>胸腔积液,穿刺,洗脱期</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>胸腔积液,洗脱期,穿刺</t>
+          <t>胸腔积液,穿刺,洗脱期</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>CNS,中枢神经系统转移,日本,CNS转移,方案,局部治疗</t>
+          <t>中枢神经系统转移,方案,局部治疗,CNS,日本,CNS转移</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>类固醇,肺炎</t>
+          <t>肺炎,类固醇</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>类固醇,肺炎</t>
+          <t>肺炎,类固醇</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>类固醇,肺炎</t>
+          <t>肺炎,类固醇</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>类固醇,肺炎</t>
+          <t>肺炎,类固醇</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>类固醇,肺炎</t>
+          <t>肺炎,类固醇</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>ICF,临床试验,第21,临床研究,观察性</t>
+          <t>ICF,第21,临床试验,观察性,临床研究</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>类固醇,肺炎</t>
+          <t>肺炎,类固醇</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>小细胞肺癌,组织学类型,腺癌</t>
+          <t>小细胞肺癌,腺癌,组织学类型</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>切片,2个月,肿瘤组织,样本,6个月</t>
+          <t>肿瘤组织,切片,6个月,样本,2个月</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>类固醇,肺炎</t>
+          <t>肺炎,类固醇</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>类固醇,肺炎</t>
+          <t>肺炎,类固醇</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>类固醇,肺炎</t>
+          <t>肺炎,类固醇</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>ICF,两周,洗脱期,方案,胸腔积液</t>
+          <t>两周,洗脱期,ICF,方案,胸腔积液</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>类固醇,肺炎</t>
+          <t>肺炎,类固醇</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>突变,ALK,日本,EGFR,美国,莫博替尼</t>
+          <t>莫博替尼,美国,日本,ALK,EGFR,突变</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>ICF,T-DXd</t>
+          <t>T-DXd,ICF</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>放疗,IV期,根治性治疗</t>
+          <t>根治性治疗,IV期,放疗</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>放疗,IV期,根治性治疗</t>
+          <t>根治性治疗,IV期,放疗</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>小细胞肺癌,组织学类型,腺癌</t>
+          <t>小细胞肺癌,腺癌,组织学类型</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>MSUD,代谢失,感染,T-DXd</t>
+          <t>T-DXd,感染,代谢失,MSUD</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>类固醇,肺炎</t>
+          <t>肺炎,类固醇</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>类固醇,肺炎</t>
+          <t>肺炎,类固醇</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>类固醇,肺炎</t>
+          <t>肺炎,类固醇</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>类固醇,肺炎</t>
+          <t>肺炎,类固醇</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>ICF,中枢神经系统,洗脱期,脑转移</t>
+          <t>洗脱期,ICF,中枢神经系统,脑转移</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>6个月,铂,局部晚期,姑息性全身治疗,免疫,6个月后,洗脱期,铂类,方案,全身治疗,一线治疗,3周</t>
+          <t>免疫,洗脱期,铂,全身治疗,方案,姑息性全身治疗,局部晚期,3周,6个月,一线治疗,铂类,6个月后</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>

--- a/new_graph_build/DL04_QA_ner.xlsx
+++ b/new_graph_build/DL04_QA_ner.xlsx
@@ -536,7 +536,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>腹水,胸腔积液,心包积液</t>
+          <t>心包积液,胸腔积液,腹水</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -589,7 +589,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>局部治疗,中枢神经系统转移,病灶</t>
+          <t>病灶,中枢神经系统转移,局部治疗</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -748,7 +748,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>腹水,洗脱期,前三个月,心包积液,胸腔积液</t>
+          <t>前三个月,心包积液,洗脱期,腹水,胸腔积液</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -852,7 +852,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>KRAS,突变,一线治疗</t>
+          <t>一线治疗,KRAS,突变</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -907,7 +907,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>6个月,洗脱期,辅助治疗</t>
+          <t>6个月,辅助治疗,洗脱期</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -981,7 +981,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>炎症,感染,ILD,类固醇</t>
+          <t>感染,ILD,类固醇,炎症</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>中枢神经系统转移,方案,T-DXd,局部治疗,第4,脑转移</t>
+          <t>局部治疗,方案,T-DXd,第4,脑转移,中枢神经系统转移</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>免疫,毒性,铂,MP相关,自身免疫,禁忌症,医学禁忌,帕博利珠</t>
+          <t>帕博利珠,铂,MP相关,医学禁忌,禁忌症,自身免疫,免疫,毒性</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>HER2突变,一线治疗,突变,人群</t>
+          <t>人群,一线治疗,突变,HER2突变</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>ROS1、PDL1,方案,数据且,ALK,ctDNA,EGFR,突变</t>
+          <t>ctDNA,ROS1、PDL1,EGFR,方案,ALK,数据且,突变</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>中枢神经系统转移,局部治疗,靶病灶,RECIST,病灶</t>
+          <t>病灶,局部治疗,靶病灶,RECIST,中枢神经系统转移</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>腹水,洗脱期,T-DXd,肺炎,心包积液,肺癌,胸腔积液</t>
+          <t>肺癌,肺炎,心包积液,洗脱期,腹水,T-DXd,胸腔积液</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>HER2,基因突变,方案,基因组,基因,HER2突变,ctDNA,突变</t>
+          <t>ctDNA,基因突变,基因,基因组,方案,HER2突变,突变,HER2</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>晚期,2-3周</t>
+          <t>2-3周,晚期</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>胸腔积液,穿刺,洗脱期</t>
+          <t>洗脱期,胸腔积液,穿刺</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>胸腔积液,穿刺,洗脱期</t>
+          <t>洗脱期,胸腔积液,穿刺</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>中枢神经系统转移,方案,局部治疗,CNS,日本,CNS转移</t>
+          <t>CNS,局部治疗,方案,CNS转移,日本,中枢神经系统转移</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>ICF,第21,临床试验,观察性,临床研究</t>
+          <t>ICF,观察性,临床试验,第21,临床研究</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>小细胞肺癌,腺癌,组织学类型</t>
+          <t>组织学类型,腺癌,小细胞肺癌</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>肿瘤组织,切片,6个月,样本,2个月</t>
+          <t>肿瘤组织,2个月,6个月,切片,样本</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>莫博替尼,美国,日本,ALK,EGFR,突变</t>
+          <t>EGFR,美国,ALK,日本,莫博替尼,突变</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>根治性治疗,IV期,放疗</t>
+          <t>IV期,放疗,根治性治疗</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>根治性治疗,IV期,放疗</t>
+          <t>IV期,放疗,根治性治疗</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>小细胞肺癌,腺癌,组织学类型</t>
+          <t>组织学类型,腺癌,小细胞肺癌</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>T-DXd,感染,代谢失,MSUD</t>
+          <t>T-DXd,感染,MSUD,代谢失</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>洗脱期,ICF,中枢神经系统,脑转移</t>
+          <t>中枢神经系统,脑转移,洗脱期,ICF</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>免疫,洗脱期,铂,全身治疗,方案,姑息性全身治疗,局部晚期,3周,6个月,一线治疗,铂类,6个月后</t>
+          <t>铂,局部晚期,6个月后,6个月,洗脱期,方案,免疫,全身治疗,姑息性全身治疗,铂类,一线治疗,3周</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3406,7 +3406,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>前一周,一周,方案</t>
+          <t>一周,前一周,方案</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
